--- a/biology/Zoologie/Acropora_cervicornis/Acropora_cervicornis.xlsx
+++ b/biology/Zoologie/Acropora_cervicornis/Acropora_cervicornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corail corne de cerf
 Le Corail corne de cerf (Acropora cervicornis) est une espèce de cnidaire appartenant à la famille des Acroporidés.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce d'acropore arborescente, formant des enchevêtrements de grandes hampes pointues ressemblant plus ou moins à des bois de cerf. Sa couleur peut aller de crème pâle (presque blanc) à jaune foncé (presque brun), avec la pointe blanche. 
-Une colonie peut mesurer jusqu'à 2,5 m de diamètre[1].
-Il ressemble beaucoup à son espèce-sœur de l'Indo-Pacifique, Acropora formosa, qui partage son nom vernaculaire[1].
+Une colonie peut mesurer jusqu'à 2,5 m de diamètre.
+Il ressemble beaucoup à son espèce-sœur de l'Indo-Pacifique, Acropora formosa, qui partage son nom vernaculaire.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cette espèce dans le Golfe du Mexique : Floride, Bahamas, Caraïbes[1]...
-C'est un corail typique des eaux claires et calmes, que l'on trouve notamment dans les lagons bien drainés[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette espèce dans le Golfe du Mexique : Floride, Bahamas, Caraïbes...
+C'est un corail typique des eaux claires et calmes, que l'on trouve notamment dans les lagons bien drainés.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un type de corail à croissance rapide (10 cm/an) ; en contrepartie, il est relativement fragile, notamment aux tempêtes ou à certains corallivores[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un type de corail à croissance rapide (10 cm/an) ; en contrepartie, il est relativement fragile, notamment aux tempêtes ou à certains corallivores.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'UICN a inscrit cette espèce dans la liste rouge de l'UICN en raison de sa raréfaction croissante : cette espèce a en effet perdu plus de 80 % de son effectif en 30 ans[2]. L'espèce est particulièrement sensible au blanchissement induit par le changement climatique, aux maladies à la pression des activités humaines.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'UICN a inscrit cette espèce dans la liste rouge de l'UICN en raison de sa raréfaction croissante : cette espèce a en effet perdu plus de 80 % de son effectif en 30 ans. L'espèce est particulièrement sensible au blanchissement induit par le changement climatique, aux maladies à la pression des activités humaines.
 </t>
         </is>
       </c>
